--- a/data/ren_hh/entsoe-transparency/actual_generation.xlsx
+++ b/data/ren_hh/entsoe-transparency/actual_generation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvkla\Desktop\Model\2045\renewables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nordics-2045\data\ren_hh\entsoe-transparency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77470834-4E1E-46CC-BF2D-57F8435C93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0788679-178A-4E2B-B1D7-7F7E667C73E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57012" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{629F5E38-80FF-45A7-85A9-E1A1CE651F6E}"/>
+    <workbookView xWindow="34725" yWindow="2385" windowWidth="28800" windowHeight="15435" xr2:uid="{629F5E38-80FF-45A7-85A9-E1A1CE651F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,15 +479,15 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -572,7 +572,7 @@
         <v>110.4382928</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -686,12 +686,12 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>2569.8993751061907</v>
+        <v>2570</v>
       </c>
       <c r="D6">
         <v>5850.0000000000009</v>
@@ -724,12 +724,12 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>2146.7609999999995</v>
+        <v>2147</v>
       </c>
       <c r="D7">
         <v>45600</v>
